--- a/PlanoDeProdução-LisbonSpots.xlsx
+++ b/PlanoDeProdução-LisbonSpots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamar\Documents\IADE\2-Ano\2-Semestre\P.D.W\ProjetoWeb-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AEC26A-4EB5-4C14-8536-3F2C96A2B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFFFBE5-26D7-4DDF-A87C-D6E19CA2FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B321C625-2EB6-4076-BAC5-F38086C592BD}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
